--- a/biology/Médecine/1858_en_santé_et_médecine/1858_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1858_en_santé_et_médecine/1858_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1858_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1858_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1858 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1858_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1858_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette année-là
-L'été est particulièrement chaud, entraînant la Grande Puanteur à Londres[1].
-En Allemagne, Rudolf Virchow (1821-1902) émet la théorie que des cellules ne peuvent provenir que de cellules préexistantes : omnis cellula e cellula[2].
-Au Japon, fondation de l'université Keiō ou université Keiō Gijuku (慶應義塾大学, Keiō Gijuku daigaku?) par Yukichi Fukuzawa[3].
-Description de la myopathie de Duchenne par le neurologue français Guillaume Duchenne de Boulogne[4].</t>
+L'été est particulièrement chaud, entraînant la Grande Puanteur à Londres.
+En Allemagne, Rudolf Virchow (1821-1902) émet la théorie que des cellules ne peuvent provenir que de cellules préexistantes : omnis cellula e cellula.
+Au Japon, fondation de l'université Keiō ou université Keiō Gijuku (慶應義塾大学, Keiō Gijuku daigaku?) par Yukichi Fukuzawa.
+Description de la myopathie de Duchenne par le neurologue français Guillaume Duchenne de Boulogne.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1858_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1858_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pierre-Joseph Van Beneden (1809-1894) : Mémoire sur les vers intestinaux[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre-Joseph Van Beneden (1809-1894) : Mémoire sur les vers intestinaux.
 Henry Gray (1825-1861) : Anatomy, Descriptive and Surgical plus connu sous le nom de Gray's Anatomy.
-Louis Victor Marcé (1828-1864) : Traité de la folie des femmes enceintes, des nouvelles accouchées et des nourrices[6].
-Alfred Velpeau (1795-1867) : 2e édition du Traité des maladies du sein et de la région mammaire[7].</t>
+Louis Victor Marcé (1828-1864) : Traité de la folie des femmes enceintes, des nouvelles accouchées et des nourrices.
+Alfred Velpeau (1795-1867) : 2e édition du Traité des maladies du sein et de la région mammaire.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1858_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1858_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +594,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 janvier : Bernard Sachs (mort en 1944), neurologue américain.
 28 février : Vladimir Serbsky (mort en 1917), psychiatre russe.
 17 juillet : Victor Liotard (mort en 1916), pharmacien de la Marine et administrateur colonial français.
-24 octobre : Eugène Devic (mort en 1930), médecin neurologue français qui a laissé son nom à la maladie éponyme ou neuromyélite optique[8].</t>
+24 octobre : Eugène Devic (mort en 1930), médecin neurologue français qui a laissé son nom à la maladie éponyme ou neuromyélite optique.</t>
         </is>
       </c>
     </row>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1858_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1858_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16 juin : John Snow (né en 1813), médecin britannique[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16 juin : John Snow (né en 1813), médecin britannique.
 24 juin : Ludwig Thienemann (né en 1793), médecin et naturaliste allemand.
 14 juillet : Johannes Peter Müller (né en 1801), médecin, physiologiste, ichtyologiste et professeur d'anatomie comparée allemand.</t>
         </is>
